--- a/data/trans_bre/IMC_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Dificultad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con sobrepeso u obesidad</t>
+          <t>Población con obesidad</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/IMC_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/IMC_R2-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>5.70495520167115</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.604200587947023</v>
+        <v>2.60420058794702</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3942324446546152</v>
@@ -649,7 +649,7 @@
         <v>0.3042722290082064</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.1203264953880934</v>
+        <v>0.1203264953880932</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.874950257066999</v>
+        <v>1.655495967864831</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.753536767106945</v>
+        <v>3.059920298567985</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.946238544759916</v>
+        <v>2.267599359600846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.540857562071805</v>
+        <v>-2.196176339394531</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1088916523767078</v>
+        <v>0.09371118346436436</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1269191636410035</v>
+        <v>0.1402392962352813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09649479418441684</v>
+        <v>0.1075558573606121</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1031127507128344</v>
+        <v>-0.09702408961201073</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.761157065211158</v>
+        <v>9.479462247009609</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>10.55396249332422</v>
+        <v>10.59900832122056</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9.096577352084108</v>
+        <v>9.365766544160795</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.481063254637377</v>
+        <v>7.390879395969319</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7631368519232214</v>
+        <v>0.7571006742689195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6291637451713484</v>
+        <v>0.6253228209103582</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5503845240844715</v>
+        <v>0.533098079663512</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4055163818321529</v>
+        <v>0.4082420519210957</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.10420774790244</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.2529069283243673</v>
+        <v>0.2529069283243729</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2158420175440877</v>
@@ -749,7 +749,7 @@
         <v>0.1335759778260791</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.01339527101653633</v>
+        <v>0.01339527101653663</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2871883043733295</v>
+        <v>-0.3547178090877567</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.682680731382486</v>
+        <v>1.561087663451748</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.329849802297562</v>
+        <v>-1.147971822553436</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.279974824169284</v>
+        <v>-2.943983590268482</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.02048447477230089</v>
+        <v>-0.02587488621929218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08118015721031444</v>
+        <v>0.08127122608757202</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.07884889710832847</v>
+        <v>-0.06588831152487074</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1560889415586077</v>
+        <v>-0.1433678664596479</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.831205690725593</v>
+        <v>5.755319705074732</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.739405231078772</v>
+        <v>9.317110414797257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.622262933932802</v>
+        <v>5.936788916601157</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.453634132450675</v>
+        <v>3.80869902861444</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5181343989718724</v>
+        <v>0.5334881707209403</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.587567336380251</v>
+        <v>0.6483945581007939</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3947487817073674</v>
+        <v>0.4088590579543855</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2042753303807166</v>
+        <v>0.2327963485916856</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.876034546469428</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2813708438610202</v>
+        <v>0.2813708438610174</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01856030027844485</v>
@@ -849,7 +849,7 @@
         <v>-0.1801734742902208</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.01923124803331509</v>
+        <v>0.0192312480333149</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.574278333020691</v>
+        <v>-2.592016809360558</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.589275163074532</v>
+        <v>-1.603977066186814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.110030549359402</v>
+        <v>-6.343527969930046</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.390952119723304</v>
+        <v>-2.278129361299002</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2043829130132686</v>
+        <v>-0.2094947401245927</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09527311892961859</v>
+        <v>-0.08613880462731337</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3568350660334745</v>
+        <v>-0.3675851099783484</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1507138363474022</v>
+        <v>-0.141522693536192</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.976536273197118</v>
+        <v>3.010140833974439</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.734323079509746</v>
+        <v>5.856794255795266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.146411725786196</v>
+        <v>0.8543399919246284</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.287480710634338</v>
+        <v>3.059292912961769</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3058968909390669</v>
+        <v>0.2995873177210739</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3955787738159367</v>
+        <v>0.4074670510147469</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08354068565877039</v>
+        <v>0.06197380109364378</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2538679926884567</v>
+        <v>0.2389929466994969</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-2.084334146400188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.338657770501968</v>
+        <v>-2.338657770501962</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1615870955833834</v>
@@ -949,7 +949,7 @@
         <v>-0.1247544223548623</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1546509773688932</v>
+        <v>-0.1546509773688928</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.875781537491845</v>
+        <v>-5.746570260979648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.39428180771334</v>
+        <v>-3.551389617440152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.328461530616989</v>
+        <v>-6.779638861964892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.474825358432311</v>
+        <v>-5.314009854038957</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4563442118034959</v>
+        <v>-0.4898484282746763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2213203052162454</v>
+        <v>-0.2341195813892387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3918482225312292</v>
+        <v>-0.3521696867722904</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.316719194938814</v>
+        <v>-0.3161376918684998</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.362541864133122</v>
+        <v>2.653872947679293</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.987096769120727</v>
+        <v>5.82931549692912</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.484379995383384</v>
+        <v>2.566677665900878</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.869650071094125</v>
+        <v>0.6335197387881052</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3060923391544453</v>
+        <v>0.3160149690988745</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5519067844336852</v>
+        <v>0.5373369009449225</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1746970260364783</v>
+        <v>0.1844867795948676</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.06662267573452886</v>
+        <v>0.05778435430040749</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>1.777079515888291</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2882090838230961</v>
+        <v>0.2882090838231016</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2238820496104271</v>
@@ -1049,7 +1049,7 @@
         <v>0.104782983156015</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.01702455515391224</v>
+        <v>0.01702455515391257</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.860955826916459</v>
+        <v>1.192327003333586</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.656943884612485</v>
+        <v>2.534433835822293</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2040466742339959</v>
+        <v>-0.1830734404127728</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.297556044616726</v>
+        <v>-1.471696027289038</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.06589627699536235</v>
+        <v>0.09490507054594731</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1533381555773282</v>
+        <v>0.1450406787171707</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.01299956635157352</v>
+        <v>-0.007832349183542791</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0738076946808997</v>
+        <v>-0.08020578524414103</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.326746884174202</v>
+        <v>4.489498745354329</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.514364339427051</v>
+        <v>6.631862130111725</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.768851053375977</v>
+        <v>3.824791558287827</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.118637616395086</v>
+        <v>2.122618083713592</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3775803069502278</v>
+        <v>0.4055378163952039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4260114522049275</v>
+        <v>0.4300824214066227</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2314507733594058</v>
+        <v>0.2439713996066845</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1347368556044738</v>
+        <v>0.1351842231220982</v>
       </c>
     </row>
     <row r="19">
